--- a/src/test/resources/Run_Manager_Move_In_Move_Out.xlsx
+++ b/src/test/resources/Run_Manager_Move_In_Move_Out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC1B50C-E88A-4CB6-9667-E00EDCDA4AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14EF25-BB25-4AF7-A06F-C05B59C59006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="726">
   <si>
     <t>P_Key</t>
   </si>
@@ -1786,159 +1786,15 @@
     <t>AdminApproveRevoke</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
-    <t>WEB_TC_25</t>
-  </si>
-  <si>
-    <t>WEB_TC_26</t>
-  </si>
-  <si>
-    <t>WEB_TC_27</t>
-  </si>
-  <si>
-    <t>WEB_TC_28</t>
-  </si>
-  <si>
-    <t>WEB_TC_29</t>
-  </si>
-  <si>
-    <t>WEB_TC_30</t>
-  </si>
-  <si>
-    <t>WEB_TC_31</t>
-  </si>
-  <si>
-    <t>WEB_TC_32</t>
-  </si>
-  <si>
-    <t>WEB_TC_33</t>
-  </si>
-  <si>
-    <t>WEB_TC_34</t>
-  </si>
-  <si>
-    <t>WEB_TC_35</t>
-  </si>
-  <si>
-    <t>WEB_TC_36</t>
-  </si>
-  <si>
-    <t>WEB_TC_37</t>
-  </si>
-  <si>
-    <t>WEB_TC_38</t>
-  </si>
-  <si>
-    <t>WEB_TC_39</t>
-  </si>
-  <si>
     <t>AwqafResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_40</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_41</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_42</t>
-  </si>
-  <si>
-    <t>WEB_TC_43</t>
-  </si>
-  <si>
-    <t>WEB_TC_44</t>
-  </si>
-  <si>
-    <t>WEB_TC_45</t>
-  </si>
-  <si>
-    <t>WEB_TC_46</t>
-  </si>
-  <si>
-    <t>WEB_TC_47</t>
-  </si>
-  <si>
-    <t>WEB_TC_48</t>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -1952,6 +1808,408 @@
   </si>
   <si>
     <t>Module 5</t>
+  </si>
+  <si>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_01</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_02</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_03</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_04</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_05</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_06</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_07</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_08</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_09</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_10</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_11</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_12</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_13</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_14</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_15</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_16</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_17</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_18</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_19</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_20</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_21</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_22</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_23</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_24</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_25</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_26</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_27</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_28</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_29</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_30</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_31</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_32</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_33</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_34</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_35</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_36</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_37</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_38</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_39</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_40</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_41</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_42</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_43</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_44</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_45</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_46</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_47</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_48</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_49</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_50</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_51</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_52</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_53</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_54</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_55</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_56</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_57</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_58</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_59</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_60</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_61</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_62</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_63</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_64</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_65</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_66</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_67</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_68</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_69</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_70</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_71</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_72</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_73</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_74</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_75</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_76</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_77</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_78</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_79</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_80</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_81</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_82</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_83</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_84</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_85</t>
+  </si>
+  <si>
+    <t>MoveInMoveOut_TC_86</t>
   </si>
 </sst>
 </file>
@@ -2462,21 +2720,7 @@
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE9494"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBCE997"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2966,11 +3210,11 @@
   <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2979,9 +3223,9 @@
     <col min="2" max="2" width="26.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -3034,7 +3278,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>635</v>
+        <v>587</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>263</v>
@@ -3081,7 +3325,7 @@
         <v>265</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -3120,7 +3364,7 @@
         <v>292</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -3159,7 +3403,7 @@
         <v>293</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -3198,7 +3442,7 @@
         <v>265</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -3237,7 +3481,7 @@
         <v>292</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -3276,7 +3520,7 @@
         <v>293</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -3315,7 +3559,7 @@
         <v>308</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -3354,7 +3598,7 @@
         <v>311</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -3393,7 +3637,7 @@
         <v>314</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -3432,7 +3676,7 @@
         <v>308</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -3471,7 +3715,7 @@
         <v>311</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -3510,7 +3754,7 @@
         <v>314</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -3549,7 +3793,7 @@
         <v>321</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -3588,7 +3832,7 @@
         <v>324</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -3627,7 +3871,7 @@
         <v>327</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -3666,7 +3910,7 @@
         <v>321</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -3705,7 +3949,7 @@
         <v>324</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -3744,7 +3988,7 @@
         <v>327</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -3783,7 +4027,7 @@
         <v>321</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -3822,7 +4066,7 @@
         <v>324</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -3861,7 +4105,7 @@
         <v>327</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -3900,7 +4144,7 @@
         <v>321</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -3939,7 +4183,7 @@
         <v>324</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -3978,7 +4222,7 @@
         <v>327</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -4017,7 +4261,7 @@
         <v>344</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -4056,7 +4300,7 @@
         <v>347</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -4095,7 +4339,7 @@
         <v>350</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -4134,7 +4378,7 @@
         <v>344</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -4173,7 +4417,7 @@
         <v>347</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -4212,7 +4456,7 @@
         <v>350</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -4251,7 +4495,7 @@
         <v>344</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -4290,7 +4534,7 @@
         <v>347</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -4329,7 +4573,7 @@
         <v>350</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -4368,7 +4612,7 @@
         <v>344</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -4407,7 +4651,7 @@
         <v>347</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -4446,7 +4690,7 @@
         <v>350</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -4485,7 +4729,7 @@
         <v>371</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -4524,7 +4768,7 @@
         <v>374</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -4563,7 +4807,7 @@
         <v>377</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -4596,13 +4840,13 @@
         <v>286</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="F42" s="42" t="s">
         <v>371</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -4635,13 +4879,13 @@
         <v>368</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="F43" s="42" t="s">
         <v>374</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -4674,13 +4918,13 @@
         <v>369</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="F44" s="42" t="s">
         <v>377</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -4719,7 +4963,7 @@
         <v>371</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -4758,7 +5002,7 @@
         <v>374</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -4797,7 +5041,7 @@
         <v>377</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -4836,7 +5080,7 @@
         <v>371</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -4875,7 +5119,7 @@
         <v>374</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -4914,7 +5158,7 @@
         <v>377</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -4973,8 +5217,8 @@
       <c r="F52" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G52" s="42" t="s">
-        <v>385</v>
+      <c r="G52" s="60" t="s">
+        <v>640</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -5011,8 +5255,8 @@
       <c r="F53" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G53" s="42" t="s">
-        <v>388</v>
+      <c r="G53" s="60" t="s">
+        <v>641</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -5049,8 +5293,8 @@
       <c r="F54" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G54" s="42" t="s">
-        <v>391</v>
+      <c r="G54" s="60" t="s">
+        <v>642</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -5087,8 +5331,8 @@
       <c r="F55" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G55" s="42" t="s">
-        <v>394</v>
+      <c r="G55" s="60" t="s">
+        <v>643</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -5125,8 +5369,8 @@
       <c r="F56" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G56" s="42" t="s">
-        <v>397</v>
+      <c r="G56" s="60" t="s">
+        <v>644</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -5163,8 +5407,8 @@
       <c r="F57" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G57" s="42" t="s">
-        <v>399</v>
+      <c r="G57" s="60" t="s">
+        <v>645</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -5201,8 +5445,8 @@
       <c r="F58" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G58" s="42" t="s">
-        <v>401</v>
+      <c r="G58" s="60" t="s">
+        <v>646</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -5239,8 +5483,8 @@
       <c r="F59" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G59" s="42" t="s">
-        <v>403</v>
+      <c r="G59" s="60" t="s">
+        <v>647</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -5277,8 +5521,8 @@
       <c r="F60" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G60" s="42" t="s">
-        <v>405</v>
+      <c r="G60" s="60" t="s">
+        <v>648</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -5315,8 +5559,8 @@
       <c r="F61" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G61" s="42" t="s">
-        <v>407</v>
+      <c r="G61" s="60" t="s">
+        <v>649</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -5353,8 +5597,8 @@
       <c r="F62" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>409</v>
+      <c r="G62" s="60" t="s">
+        <v>650</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -5391,8 +5635,8 @@
       <c r="F63" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G63" s="42" t="s">
-        <v>411</v>
+      <c r="G63" s="60" t="s">
+        <v>651</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -5429,8 +5673,8 @@
       <c r="F64" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G64" s="42" t="s">
-        <v>413</v>
+      <c r="G64" s="60" t="s">
+        <v>652</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -5467,8 +5711,8 @@
       <c r="F65" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G65" s="42" t="s">
-        <v>415</v>
+      <c r="G65" s="60" t="s">
+        <v>653</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -5505,8 +5749,8 @@
       <c r="F66" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G66" s="42" t="s">
-        <v>417</v>
+      <c r="G66" s="60" t="s">
+        <v>654</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -5543,8 +5787,8 @@
       <c r="F67" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G67" s="42" t="s">
-        <v>419</v>
+      <c r="G67" s="60" t="s">
+        <v>655</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -5581,8 +5825,8 @@
       <c r="F68" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G68" s="42" t="s">
-        <v>421</v>
+      <c r="G68" s="60" t="s">
+        <v>656</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -5619,8 +5863,8 @@
       <c r="F69" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G69" s="42" t="s">
-        <v>423</v>
+      <c r="G69" s="60" t="s">
+        <v>657</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
@@ -5640,7 +5884,7 @@
     </row>
     <row r="70" spans="1:13" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="61" t="s">
-        <v>636</v>
+        <v>588</v>
       </c>
       <c r="B70" s="45" t="s">
         <v>566</v>
@@ -5678,8 +5922,8 @@
       <c r="F71" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>425</v>
+      <c r="G71" s="60" t="s">
+        <v>658</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -5716,8 +5960,8 @@
       <c r="F72" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G72" s="42" t="s">
-        <v>427</v>
+      <c r="G72" s="60" t="s">
+        <v>659</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -5754,8 +5998,8 @@
       <c r="F73" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G73" s="42" t="s">
-        <v>429</v>
+      <c r="G73" s="60" t="s">
+        <v>660</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -5792,8 +6036,8 @@
       <c r="F74" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>431</v>
+      <c r="G74" s="60" t="s">
+        <v>661</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -5830,8 +6074,8 @@
       <c r="F75" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G75" s="42" t="s">
-        <v>433</v>
+      <c r="G75" s="60" t="s">
+        <v>662</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -5868,8 +6112,8 @@
       <c r="F76" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G76" s="42" t="s">
-        <v>435</v>
+      <c r="G76" s="60" t="s">
+        <v>663</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -5906,8 +6150,8 @@
       <c r="F77" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="42" t="s">
-        <v>437</v>
+      <c r="G77" s="60" t="s">
+        <v>664</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -5944,8 +6188,8 @@
       <c r="F78" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G78" s="42" t="s">
-        <v>439</v>
+      <c r="G78" s="60" t="s">
+        <v>665</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -5982,8 +6226,8 @@
       <c r="F79" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="42" t="s">
-        <v>441</v>
+      <c r="G79" s="60" t="s">
+        <v>666</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
@@ -6020,8 +6264,8 @@
       <c r="F80" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G80" s="42" t="s">
-        <v>443</v>
+      <c r="G80" s="60" t="s">
+        <v>667</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -6058,8 +6302,8 @@
       <c r="F81" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G81" s="42" t="s">
-        <v>445</v>
+      <c r="G81" s="60" t="s">
+        <v>668</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -6096,8 +6340,8 @@
       <c r="F82" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G82" s="42" t="s">
-        <v>447</v>
+      <c r="G82" s="60" t="s">
+        <v>669</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -6134,8 +6378,8 @@
       <c r="F83" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G83" s="42" t="s">
-        <v>449</v>
+      <c r="G83" s="60" t="s">
+        <v>670</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
@@ -6172,8 +6416,8 @@
       <c r="F84" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G84" s="42" t="s">
-        <v>451</v>
+      <c r="G84" s="60" t="s">
+        <v>671</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -6210,8 +6454,8 @@
       <c r="F85" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G85" s="42" t="s">
-        <v>453</v>
+      <c r="G85" s="60" t="s">
+        <v>672</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -6248,8 +6492,8 @@
       <c r="F86" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="42" t="s">
-        <v>455</v>
+      <c r="G86" s="60" t="s">
+        <v>673</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -6286,8 +6530,8 @@
       <c r="F87" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G87" s="42" t="s">
-        <v>457</v>
+      <c r="G87" s="60" t="s">
+        <v>674</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -6324,8 +6568,8 @@
       <c r="F88" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G88" s="42" t="s">
-        <v>459</v>
+      <c r="G88" s="60" t="s">
+        <v>675</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -6362,8 +6606,8 @@
       <c r="F89" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G89" s="42" t="s">
-        <v>461</v>
+      <c r="G89" s="60" t="s">
+        <v>676</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -6383,7 +6627,7 @@
     </row>
     <row r="90" spans="1:13" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
-        <v>637</v>
+        <v>589</v>
       </c>
       <c r="B90" s="45" t="s">
         <v>566</v>
@@ -6421,8 +6665,8 @@
       <c r="F91" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="G91" s="40" t="s">
-        <v>571</v>
+      <c r="G91" s="60" t="s">
+        <v>677</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -6460,8 +6704,8 @@
       <c r="F92" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G92" s="40" t="s">
-        <v>572</v>
+      <c r="G92" s="60" t="s">
+        <v>678</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -6499,8 +6743,8 @@
       <c r="F93" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G93" s="42" t="s">
-        <v>463</v>
+      <c r="G93" s="60" t="s">
+        <v>679</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -6537,8 +6781,8 @@
       <c r="F94" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G94" s="42" t="s">
-        <v>465</v>
+      <c r="G94" s="60" t="s">
+        <v>680</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -6575,8 +6819,8 @@
       <c r="F95" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G95" s="42" t="s">
-        <v>467</v>
+      <c r="G95" s="60" t="s">
+        <v>681</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -6613,8 +6857,8 @@
       <c r="F96" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G96" s="42" t="s">
-        <v>469</v>
+      <c r="G96" s="60" t="s">
+        <v>682</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -6651,8 +6895,8 @@
       <c r="F97" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G97" s="42" t="s">
-        <v>471</v>
+      <c r="G97" s="60" t="s">
+        <v>683</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
@@ -6689,8 +6933,8 @@
       <c r="F98" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G98" s="42" t="s">
-        <v>473</v>
+      <c r="G98" s="60" t="s">
+        <v>684</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -6727,8 +6971,8 @@
       <c r="F99" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G99" s="53" t="s">
-        <v>475</v>
+      <c r="G99" s="60" t="s">
+        <v>685</v>
       </c>
       <c r="H99" s="54" t="s">
         <v>246</v>
@@ -6765,8 +7009,8 @@
       <c r="F100" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G100" s="53" t="s">
-        <v>477</v>
+      <c r="G100" s="60" t="s">
+        <v>686</v>
       </c>
       <c r="H100" s="54" t="s">
         <v>246</v>
@@ -6803,8 +7047,8 @@
       <c r="F101" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G101" s="42" t="s">
-        <v>479</v>
+      <c r="G101" s="60" t="s">
+        <v>687</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
@@ -6841,8 +7085,8 @@
       <c r="F102" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G102" s="42" t="s">
-        <v>481</v>
+      <c r="G102" s="60" t="s">
+        <v>688</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -6879,8 +7123,8 @@
       <c r="F103" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G103" s="42" t="s">
-        <v>483</v>
+      <c r="G103" s="60" t="s">
+        <v>689</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -6917,8 +7161,8 @@
       <c r="F104" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G104" s="42" t="s">
-        <v>485</v>
+      <c r="G104" s="60" t="s">
+        <v>690</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -6955,8 +7199,8 @@
       <c r="F105" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G105" s="42" t="s">
-        <v>487</v>
+      <c r="G105" s="60" t="s">
+        <v>691</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -6993,8 +7237,8 @@
       <c r="F106" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G106" s="42" t="s">
-        <v>489</v>
+      <c r="G106" s="60" t="s">
+        <v>692</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -7031,8 +7275,8 @@
       <c r="F107" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G107" s="42" t="s">
-        <v>491</v>
+      <c r="G107" s="60" t="s">
+        <v>693</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -7069,8 +7313,8 @@
       <c r="F108" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G108" s="42" t="s">
-        <v>493</v>
+      <c r="G108" s="60" t="s">
+        <v>694</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -7107,8 +7351,8 @@
       <c r="F109" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G109" s="42" t="s">
-        <v>495</v>
+      <c r="G109" s="60" t="s">
+        <v>695</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
@@ -7145,8 +7389,8 @@
       <c r="F110" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G110" s="42" t="s">
-        <v>497</v>
+      <c r="G110" s="60" t="s">
+        <v>696</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -7183,8 +7427,8 @@
       <c r="F111" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G111" s="42" t="s">
-        <v>499</v>
+      <c r="G111" s="60" t="s">
+        <v>697</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -7221,8 +7465,8 @@
       <c r="F112" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G112" s="42" t="s">
-        <v>502</v>
+      <c r="G112" s="60" t="s">
+        <v>698</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -7259,8 +7503,8 @@
       <c r="F113" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G113" s="42" t="s">
-        <v>502</v>
+      <c r="G113" s="60" t="s">
+        <v>699</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -7297,8 +7541,8 @@
       <c r="F114" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G114" s="42" t="s">
-        <v>505</v>
+      <c r="G114" s="60" t="s">
+        <v>700</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -7335,8 +7579,8 @@
       <c r="F115" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G115" s="42" t="s">
-        <v>507</v>
+      <c r="G115" s="60" t="s">
+        <v>701</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -7373,8 +7617,8 @@
       <c r="F116" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="G116" s="42" t="s">
-        <v>509</v>
+      <c r="G116" s="60" t="s">
+        <v>702</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
@@ -7394,7 +7638,7 @@
     </row>
     <row r="117" spans="1:13" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="61" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="B117" s="45" t="s">
         <v>566</v>
@@ -7432,8 +7676,8 @@
       <c r="F118" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G118" s="42" t="s">
-        <v>511</v>
+      <c r="G118" s="60" t="s">
+        <v>703</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -7470,8 +7714,8 @@
       <c r="F119" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G119" s="42" t="s">
-        <v>513</v>
+      <c r="G119" s="60" t="s">
+        <v>704</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -7508,8 +7752,8 @@
       <c r="F120" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G120" s="42" t="s">
-        <v>515</v>
+      <c r="G120" s="60" t="s">
+        <v>705</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
@@ -7546,8 +7790,8 @@
       <c r="F121" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G121" s="42" t="s">
-        <v>517</v>
+      <c r="G121" s="60" t="s">
+        <v>706</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
@@ -7584,8 +7828,8 @@
       <c r="F122" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G122" s="42" t="s">
-        <v>519</v>
+      <c r="G122" s="60" t="s">
+        <v>707</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -7622,8 +7866,8 @@
       <c r="F123" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G123" s="42" t="s">
-        <v>521</v>
+      <c r="G123" s="60" t="s">
+        <v>708</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -7660,8 +7904,8 @@
       <c r="F124" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G124" s="42" t="s">
-        <v>523</v>
+      <c r="G124" s="60" t="s">
+        <v>709</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -7698,8 +7942,8 @@
       <c r="F125" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G125" s="42" t="s">
-        <v>525</v>
+      <c r="G125" s="60" t="s">
+        <v>710</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -7736,8 +7980,8 @@
       <c r="F126" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G126" s="42" t="s">
-        <v>527</v>
+      <c r="G126" s="60" t="s">
+        <v>711</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -7774,8 +8018,8 @@
       <c r="F127" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G127" s="42" t="s">
-        <v>529</v>
+      <c r="G127" s="60" t="s">
+        <v>712</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -7812,8 +8056,8 @@
       <c r="F128" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G128" s="42" t="s">
-        <v>531</v>
+      <c r="G128" s="60" t="s">
+        <v>713</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -7850,8 +8094,8 @@
       <c r="F129" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G129" s="42" t="s">
-        <v>533</v>
+      <c r="G129" s="60" t="s">
+        <v>714</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -7888,8 +8132,8 @@
       <c r="F130" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G130" s="42" t="s">
-        <v>535</v>
+      <c r="G130" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
@@ -7926,8 +8170,8 @@
       <c r="F131" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G131" s="42" t="s">
-        <v>537</v>
+      <c r="G131" s="60" t="s">
+        <v>716</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
@@ -7964,8 +8208,8 @@
       <c r="F132" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G132" s="42" t="s">
-        <v>539</v>
+      <c r="G132" s="60" t="s">
+        <v>717</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
@@ -8002,8 +8246,8 @@
       <c r="F133" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G133" s="42" t="s">
-        <v>541</v>
+      <c r="G133" s="60" t="s">
+        <v>718</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
@@ -8040,8 +8284,8 @@
       <c r="F134" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G134" s="42" t="s">
-        <v>543</v>
+      <c r="G134" s="60" t="s">
+        <v>719</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
@@ -8078,8 +8322,8 @@
       <c r="F135" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G135" s="42" t="s">
-        <v>545</v>
+      <c r="G135" s="60" t="s">
+        <v>720</v>
       </c>
       <c r="H135" s="38" t="s">
         <v>246</v>
@@ -8116,8 +8360,8 @@
       <c r="F136" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="G136" s="42" t="s">
-        <v>547</v>
+      <c r="G136" s="60" t="s">
+        <v>721</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
@@ -8137,7 +8381,7 @@
     </row>
     <row r="137" spans="1:13" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="61" t="s">
-        <v>639</v>
+        <v>591</v>
       </c>
       <c r="B137" s="45" t="s">
         <v>566</v>
@@ -8175,8 +8419,8 @@
       <c r="F138" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G138" s="42" t="s">
-        <v>549</v>
+      <c r="G138" s="60" t="s">
+        <v>722</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
@@ -8213,8 +8457,8 @@
       <c r="F139" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G139" s="42" t="s">
-        <v>551</v>
+      <c r="G139" s="60" t="s">
+        <v>723</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
@@ -8251,8 +8495,8 @@
       <c r="F140" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G140" s="42" t="s">
-        <v>553</v>
+      <c r="G140" s="60" t="s">
+        <v>724</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
@@ -8289,8 +8533,8 @@
       <c r="F141" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="G141" s="42" t="s">
-        <v>555</v>
+      <c r="G141" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
@@ -8312,48 +8556,48 @@
   <autoFilter ref="A1:L141" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="15" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="372"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="14" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J69">
-    <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:J89">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:J116">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J136">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/Run_Manager_Move_In_Move_Out.xlsx
+++ b/src/test/resources/Run_Manager_Move_In_Move_Out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14EF25-BB25-4AF7-A06F-C05B59C59006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36B7969-C177-47A7-A0CE-FE0832A98D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="727">
   <si>
     <t>P_Key</t>
   </si>
@@ -2210,6 +2210,9 @@
   </si>
   <si>
     <t>MoveInMoveOut_TC_86</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -3210,11 +3213,11 @@
   <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="G144" sqref="G144"/>
+      <selection pane="bottomRight" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5224,7 +5227,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>28</v>
@@ -5262,7 +5265,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J53" s="43" t="s">
         <v>28</v>
@@ -5300,7 +5303,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J54" s="43" t="s">
         <v>28</v>
@@ -5338,7 +5341,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J55" s="43" t="s">
         <v>28</v>
@@ -5376,7 +5379,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J56" s="43" t="s">
         <v>28</v>
@@ -5414,7 +5417,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J57" s="43" t="s">
         <v>28</v>
@@ -5452,7 +5455,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J58" s="43" t="s">
         <v>28</v>
@@ -5490,7 +5493,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J59" s="43" t="s">
         <v>28</v>
@@ -5528,7 +5531,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J60" s="43" t="s">
         <v>28</v>
@@ -5566,7 +5569,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J61" s="43" t="s">
         <v>28</v>
@@ -5604,7 +5607,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J62" s="43" t="s">
         <v>28</v>
@@ -5642,7 +5645,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J63" s="43" t="s">
         <v>28</v>
@@ -5680,7 +5683,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J64" s="43" t="s">
         <v>28</v>
@@ -5718,7 +5721,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J65" s="43" t="s">
         <v>28</v>
@@ -5756,7 +5759,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J66" s="43" t="s">
         <v>28</v>
@@ -5794,7 +5797,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J67" s="43" t="s">
         <v>28</v>
@@ -5832,7 +5835,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J68" s="43" t="s">
         <v>28</v>
@@ -5870,7 +5873,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J69" s="43" t="s">
         <v>28</v>
@@ -5929,7 +5932,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J71" s="43" t="s">
         <v>28</v>
@@ -5967,7 +5970,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J72" s="43" t="s">
         <v>28</v>
@@ -6005,7 +6008,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J73" s="43" t="s">
         <v>28</v>
@@ -6043,7 +6046,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J74" s="43" t="s">
         <v>28</v>
@@ -6081,7 +6084,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J75" s="43" t="s">
         <v>28</v>
@@ -6119,7 +6122,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J76" s="43" t="s">
         <v>28</v>
@@ -6157,7 +6160,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J77" s="43" t="s">
         <v>28</v>
@@ -6195,7 +6198,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J78" s="43" t="s">
         <v>28</v>
@@ -6233,7 +6236,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J79" s="43" t="s">
         <v>28</v>
@@ -6271,7 +6274,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J80" s="43" t="s">
         <v>28</v>
@@ -6309,7 +6312,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J81" s="43" t="s">
         <v>28</v>
@@ -6347,7 +6350,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J82" s="43" t="s">
         <v>28</v>
@@ -6385,7 +6388,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J83" s="43" t="s">
         <v>28</v>
@@ -6423,7 +6426,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J84" s="43" t="s">
         <v>28</v>
@@ -6461,7 +6464,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J85" s="43" t="s">
         <v>28</v>
@@ -6499,7 +6502,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J86" s="43" t="s">
         <v>28</v>
@@ -6537,7 +6540,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J87" s="43" t="s">
         <v>28</v>
@@ -6575,7 +6578,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J88" s="43" t="s">
         <v>28</v>
@@ -6613,7 +6616,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J89" s="43" t="s">
         <v>28</v>
@@ -6672,7 +6675,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J91" s="43" t="s">
         <v>28</v>
@@ -6711,7 +6714,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J92" s="43" t="s">
         <v>28</v>
@@ -6750,7 +6753,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J93" s="43" t="s">
         <v>28</v>
@@ -6788,7 +6791,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J94" s="43" t="s">
         <v>28</v>
@@ -6826,7 +6829,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J95" s="43" t="s">
         <v>28</v>
@@ -6864,7 +6867,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J96" s="43" t="s">
         <v>28</v>
@@ -6902,7 +6905,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J97" s="43" t="s">
         <v>28</v>
@@ -6940,7 +6943,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J98" s="43" t="s">
         <v>28</v>
@@ -6977,8 +6980,8 @@
       <c r="H99" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="I99" s="54" t="s">
-        <v>15</v>
+      <c r="I99" s="38" t="s">
+        <v>726</v>
       </c>
       <c r="J99" s="43" t="s">
         <v>28</v>
@@ -7015,8 +7018,8 @@
       <c r="H100" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="I100" s="54" t="s">
-        <v>15</v>
+      <c r="I100" s="38" t="s">
+        <v>726</v>
       </c>
       <c r="J100" s="43" t="s">
         <v>28</v>
@@ -7054,7 +7057,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J101" s="43" t="s">
         <v>28</v>
@@ -7092,7 +7095,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J102" s="43" t="s">
         <v>28</v>
@@ -7130,7 +7133,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J103" s="43" t="s">
         <v>28</v>
@@ -7168,7 +7171,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J104" s="43" t="s">
         <v>28</v>
@@ -7206,7 +7209,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J105" s="43" t="s">
         <v>28</v>
@@ -7244,7 +7247,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J106" s="43" t="s">
         <v>28</v>
@@ -7282,7 +7285,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J107" s="43" t="s">
         <v>28</v>
@@ -7320,7 +7323,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J108" s="43" t="s">
         <v>28</v>
@@ -7358,7 +7361,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>28</v>
@@ -7396,7 +7399,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J110" s="43" t="s">
         <v>28</v>
@@ -7434,7 +7437,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J111" s="43" t="s">
         <v>28</v>
@@ -7472,7 +7475,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J112" s="43" t="s">
         <v>28</v>
@@ -7510,7 +7513,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J113" s="43" t="s">
         <v>28</v>
@@ -7548,7 +7551,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J114" s="43" t="s">
         <v>28</v>
@@ -7586,7 +7589,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J115" s="43" t="s">
         <v>28</v>
@@ -7624,7 +7627,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J116" s="43" t="s">
         <v>28</v>
@@ -7683,7 +7686,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J118" s="43" t="s">
         <v>28</v>
@@ -7721,7 +7724,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J119" s="43" t="s">
         <v>28</v>
@@ -7759,7 +7762,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J120" s="43" t="s">
         <v>28</v>
@@ -7797,7 +7800,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J121" s="43" t="s">
         <v>28</v>
@@ -7835,7 +7838,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J122" s="43" t="s">
         <v>28</v>
@@ -7873,7 +7876,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J123" s="43" t="s">
         <v>28</v>
@@ -7911,7 +7914,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J124" s="43" t="s">
         <v>28</v>
@@ -7949,7 +7952,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J125" s="43" t="s">
         <v>28</v>
@@ -7987,7 +7990,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J126" s="43" t="s">
         <v>28</v>
@@ -8025,7 +8028,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J127" s="43" t="s">
         <v>28</v>
@@ -8063,7 +8066,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J128" s="43" t="s">
         <v>28</v>
@@ -8101,7 +8104,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J129" s="43" t="s">
         <v>28</v>
@@ -8139,7 +8142,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J130" s="43" t="s">
         <v>28</v>
@@ -8177,7 +8180,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J131" s="43" t="s">
         <v>28</v>
@@ -8215,7 +8218,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J132" s="43" t="s">
         <v>28</v>
@@ -8253,7 +8256,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J133" s="43" t="s">
         <v>28</v>
@@ -8291,7 +8294,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J134" s="43" t="s">
         <v>28</v>
@@ -8329,7 +8332,7 @@
         <v>246</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J135" s="43" t="s">
         <v>28</v>
@@ -8367,7 +8370,7 @@
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J136" s="43" t="s">
         <v>28</v>
@@ -8426,7 +8429,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J138" s="43" t="s">
         <v>28</v>
@@ -8464,7 +8467,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J139" s="43" t="s">
         <v>28</v>
@@ -8502,7 +8505,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J140" s="43" t="s">
         <v>28</v>
@@ -8540,7 +8543,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>726</v>
       </c>
       <c r="J141" s="43" t="s">
         <v>28</v>
